--- a/biology/Botanique/Iridaea/Iridaea.xlsx
+++ b/biology/Botanique/Iridaea/Iridaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iridaea est un genre d’algues rouges de la famille des Gigartinaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (4 août 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (4 août 2018) :
 Iridaea agathoicus Delf &amp; Michell
 Iridaea capensis var. elongata Grunow
 Iridaea ciliata Kützing
@@ -563,7 +577,7 @@
 Iridaea violacea Kützing
 Iridaea violacea var. prolifera Kützing
 Iridaea yemensis Montagne
-Selon BioLib                    (4 août 2018)[2] et ITIS      (4 août 2018)[3] :
+Selon BioLib                    (4 août 2018) et ITIS      (4 août 2018) :
 Iridaea cordata (Turner) St. -vincent
 Iridaea coriacea
 Iridaea cornucopiae
@@ -573,7 +587,7 @@
 Iridaea punicea
 Iridaea sanguinea
 Iridaea splendens
-Selon World Register of Marine Species                               (4 août 2018)[4] :
+Selon World Register of Marine Species                               (4 août 2018) :
 Iridaea ciliata Kützing, 1849
 Iridaea convoluta (Areschoug ex J Agardh) Hewitt, 1960
 Iridaea cordata (Turner) Bory de Saint-Vincent, 1826
